--- a/data_hs21/yogurt.xlsx
+++ b/data_hs21/yogurt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hahn\Documents\Master\temp\test\yogurt-prediction\data_hs21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A1CA04-8612-466B-9B39-0220423D4C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E042AC-60FF-4E6A-8B20-500FC02E984B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48060" yWindow="6750" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <t>07.21</t>
   </si>
   <si>
-    <t>kon-yougurtpr-180-fru</t>
+    <t>kon.yougurtpr.180.fru</t>
   </si>
 </sst>
 </file>
@@ -601,12 +601,12 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B68"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +614,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -622,7 +622,7 @@
         <v>0.54107532286609883</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -630,7 +630,7 @@
         <v>0.55542636424896719</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -638,7 +638,7 @@
         <v>0.54281877449140581</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -646,7 +646,7 @@
         <v>0.55347678787427168</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -654,7 +654,7 @@
         <v>0.55573441785421029</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -662,7 +662,7 @@
         <v>0.55347678787427168</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -670,7 +670,7 @@
         <v>0.54379971664570859</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -678,7 +678,7 @@
         <v>0.55573441785421029</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -686,7 +686,7 @@
         <v>0.55557140321860399</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -694,7 +694,7 @@
         <v>0.5540552355816285</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -702,7 +702,7 @@
         <v>0.55320595263316497</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -710,7 +710,7 @@
         <v>0.55546358261310358</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -718,7 +718,7 @@
         <v>0.55168978499618948</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -726,7 +726,7 @@
         <v>0.55546358261310358</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -734,7 +734,7 @@
         <v>0.54352888140460176</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -742,7 +742,7 @@
         <v>0.55546358261310358</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -750,7 +750,7 @@
         <v>0.56143093321735449</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -758,7 +758,7 @@
         <v>0.55320595263316497</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -766,7 +766,7 @@
         <v>0.55351283565844689</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -774,7 +774,7 @@
         <v>0.54127125142466315</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -782,7 +782,7 @@
         <v>0.54287932671241934</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -790,7 +790,7 @@
         <v>0.5549400386924056</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -798,7 +798,7 @@
         <v>0.5549400386924056</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -806,7 +806,7 @@
         <v>0.54128781236790902</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0.51935120259508094</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -822,7 +822,7 @@
         <v>0.54865680018213658</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -830,7 +830,7 @@
         <v>0.52457582733784813</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -838,7 +838,7 @@
         <v>0.54869725129782065</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -846,7 +846,7 @@
         <v>0.52457582733784813</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -854,7 +854,7 @@
         <v>0.55334852434789517</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -862,7 +862,7 @@
         <v>0.55334852434789517</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -870,7 +870,7 @@
         <v>0.54565744074219791</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -878,7 +878,7 @@
         <v>0.55030871379227253</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0.54565744074219791</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0.55334852434789517</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -902,7 +902,7 @@
         <v>0.52922710038792287</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -910,7 +910,7 @@
         <v>0.55030871379227253</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -918,7 +918,7 @@
         <v>0.5261872898322999</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0.5261872898322999</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -934,7 +934,7 @@
         <v>0.55030871379227253</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -942,7 +942,7 @@
         <v>0.55334852434789517</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -950,7 +950,7 @@
         <v>0.55030871379227253</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -958,7 +958,7 @@
         <v>0.55334852434789517</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -966,7 +966,7 @@
         <v>0.55334852434789517</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -974,7 +974,7 @@
         <v>0.55334852434789517</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -982,7 +982,7 @@
         <v>0.55334852434789517</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0.55030871379227253</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -998,7 +998,7 @@
         <v>0.55030871379227253</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>0.54565744074219791</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>0.52153601678222528</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>0.54565744074219791</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>0.55334852434789517</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>0.55334852434789517</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>0.5549400386924056</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0.53081861473243308</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>0.5549400386924056</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>0.5549400386924056</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0.55028876564233098</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0.54724895508670834</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>0.5549400386924056</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>0.55028876564233098</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0.54724895508670834</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0.5549400386924056</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>0.5549400386924056</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>0.5549400386924056</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>0.5549400386924056</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
